--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Final_Parameters/KPIT Technologies Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Final_Parameters/KPIT Technologies Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Balance Sheet of KPIT Technologies(in Rs. Cr.)</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1572,13 +1575,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1639,10 +1642,13 @@
       <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>0.22</v>
@@ -1662,20 +1668,17 @@
       <c r="K2">
         <v>-2.35</v>
       </c>
-      <c r="L2">
-        <v>-2.35</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>-2.35</v>
       </c>
       <c r="O2">
         <v>-2.35</v>
       </c>
       <c r="P2">
+        <v>-2.35</v>
+      </c>
+      <c r="Q2">
         <v>0.1</v>
-      </c>
-      <c r="Q2">
-        <v>-234.9</v>
       </c>
       <c r="R2">
         <v>-234.9</v>
@@ -1686,10 +1689,13 @@
       <c r="T2">
         <v>-234.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>-234.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1703,17 +1709,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0.1</v>
@@ -1727,10 +1730,13 @@
       <c r="T3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>299.93</v>
@@ -1762,37 +1768,37 @@
       <c r="K4">
         <v>90.20999999999999</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>90.20999999999999</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4.37</v>
-      </c>
-      <c r="N4">
-        <v>85.84</v>
       </c>
       <c r="O4">
         <v>85.84</v>
       </c>
       <c r="P4">
+        <v>85.84</v>
+      </c>
+      <c r="Q4">
         <v>268.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3.2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3.18</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3.2</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.18</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>208.26</v>
@@ -1824,37 +1830,37 @@
       <c r="K5">
         <v>35.98</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>35.98</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.59</v>
-      </c>
-      <c r="N5">
-        <v>31.39</v>
       </c>
       <c r="O5">
         <v>31.39</v>
       </c>
       <c r="P5">
+        <v>31.39</v>
+      </c>
+      <c r="Q5">
         <v>268.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.17</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1.16</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.17</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.16</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>230.3</v>
@@ -1887,36 +1893,39 @@
         <v>93.92</v>
       </c>
       <c r="L6">
+        <v>-10.14</v>
+      </c>
+      <c r="M6">
         <v>83.78</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6.98</v>
-      </c>
-      <c r="N6">
-        <v>76.81</v>
       </c>
       <c r="O6">
         <v>76.81</v>
       </c>
       <c r="P6">
+        <v>76.81</v>
+      </c>
+      <c r="Q6">
         <v>268.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.86</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.85</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.86</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2.85</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>229.28</v>
@@ -1948,23 +1957,20 @@
       <c r="K7">
         <v>42.24</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>42.24</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.87</v>
-      </c>
-      <c r="N7">
-        <v>34.38</v>
       </c>
       <c r="O7">
         <v>34.38</v>
       </c>
       <c r="P7">
+        <v>34.38</v>
+      </c>
+      <c r="Q7">
         <v>268.74</v>
-      </c>
-      <c r="Q7">
-        <v>1.28</v>
       </c>
       <c r="R7">
         <v>1.28</v>
@@ -1975,10 +1981,13 @@
       <c r="T7">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>198.25</v>
@@ -2010,37 +2019,37 @@
       <c r="K8">
         <v>27.52</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>27.52</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.6</v>
-      </c>
-      <c r="N8">
-        <v>24.92</v>
       </c>
       <c r="O8">
         <v>24.92</v>
       </c>
       <c r="P8">
+        <v>24.92</v>
+      </c>
+      <c r="Q8">
         <v>268.99</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.93</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.92</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.93</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>190.68</v>
@@ -2073,22 +2082,22 @@
         <v>25.6</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
         <v>28.8</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.9</v>
-      </c>
-      <c r="N9">
-        <v>26.9</v>
       </c>
       <c r="O9">
         <v>26.9</v>
       </c>
       <c r="P9">
+        <v>26.9</v>
+      </c>
+      <c r="Q9">
         <v>268.96</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2099,10 +2108,13 @@
       <c r="T9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>178.06</v>
@@ -2131,23 +2143,20 @@
       <c r="K10">
         <v>16.03</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>16.03</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.45</v>
-      </c>
-      <c r="N10">
-        <v>14.58</v>
       </c>
       <c r="O10">
         <v>14.58</v>
       </c>
       <c r="P10">
+        <v>14.58</v>
+      </c>
+      <c r="Q10">
         <v>268.9</v>
-      </c>
-      <c r="Q10">
-        <v>0.54</v>
       </c>
       <c r="R10">
         <v>0.54</v>
@@ -2158,10 +2167,13 @@
       <c r="T10">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>217.78</v>
@@ -2194,22 +2206,22 @@
         <v>32.61</v>
       </c>
       <c r="L11">
+        <v>-3.66</v>
+      </c>
+      <c r="M11">
         <v>28.95</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.1</v>
-      </c>
-      <c r="N11">
-        <v>26.85</v>
       </c>
       <c r="O11">
         <v>26.85</v>
       </c>
       <c r="P11">
+        <v>26.85</v>
+      </c>
+      <c r="Q11">
         <v>268.88</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -2220,10 +2232,13 @@
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>305.19</v>
@@ -2255,37 +2270,37 @@
       <c r="K12">
         <v>58.15</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>58.15</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11.03</v>
-      </c>
-      <c r="N12">
-        <v>47.12</v>
       </c>
       <c r="O12">
         <v>47.12</v>
       </c>
       <c r="P12">
+        <v>47.12</v>
+      </c>
+      <c r="Q12">
         <v>269.86</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.75</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.73</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.75</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1.73</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>290.5</v>
@@ -2317,37 +2332,37 @@
       <c r="K13">
         <v>63.99</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>63.99</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>11.55</v>
-      </c>
-      <c r="N13">
-        <v>52.43</v>
       </c>
       <c r="O13">
         <v>52.43</v>
       </c>
       <c r="P13">
+        <v>52.43</v>
+      </c>
+      <c r="Q13">
         <v>269.62</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.95</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.92</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.95</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.92</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>253.39</v>
@@ -2379,37 +2394,37 @@
       <c r="K14">
         <v>63.17</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>63.17</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10.83</v>
-      </c>
-      <c r="N14">
-        <v>52.35</v>
       </c>
       <c r="O14">
         <v>52.35</v>
       </c>
       <c r="P14">
+        <v>52.35</v>
+      </c>
+      <c r="Q14">
         <v>269.15</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.92</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.95</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>237.27</v>
@@ -2441,37 +2456,37 @@
       <c r="K15">
         <v>47.07</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>47.07</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.58</v>
-      </c>
-      <c r="N15">
-        <v>41.49</v>
       </c>
       <c r="O15">
         <v>41.49</v>
       </c>
       <c r="P15">
+        <v>41.49</v>
+      </c>
+      <c r="Q15">
         <v>269.04</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.54</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.53</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.54</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.53</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>331.92</v>
@@ -2503,37 +2518,37 @@
       <c r="K16">
         <v>91.26000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>91.26000000000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.04</v>
-      </c>
-      <c r="N16">
-        <v>86.23</v>
       </c>
       <c r="O16">
         <v>86.23</v>
       </c>
       <c r="P16">
+        <v>86.23</v>
+      </c>
+      <c r="Q16">
         <v>270.02</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.19</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.16</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3.19</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3.16</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>379.94</v>
@@ -2565,37 +2580,37 @@
       <c r="K17">
         <v>85.61</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>85.61</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>19.15</v>
-      </c>
-      <c r="N17">
-        <v>66.45</v>
       </c>
       <c r="O17">
         <v>66.45</v>
       </c>
       <c r="P17">
+        <v>66.45</v>
+      </c>
+      <c r="Q17">
         <v>270.16</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.46</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.43</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2.46</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2.43</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>357.57</v>
@@ -2627,37 +2642,37 @@
       <c r="K18">
         <v>87.02</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>87.02</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>21.2</v>
-      </c>
-      <c r="N18">
-        <v>65.81999999999999</v>
       </c>
       <c r="O18">
         <v>65.81999999999999</v>
       </c>
       <c r="P18">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="Q18">
         <v>269.95</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.44</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.41</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.44</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.41</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>354.79</v>
@@ -2689,37 +2704,37 @@
       <c r="K19">
         <v>95.06</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>95.06</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>21.37</v>
-      </c>
-      <c r="N19">
-        <v>73.68000000000001</v>
       </c>
       <c r="O19">
         <v>73.68000000000001</v>
       </c>
       <c r="P19">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="Q19">
         <v>270.1</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2.73</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.7</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.73</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>444.96</v>
@@ -2751,37 +2766,37 @@
       <c r="K20">
         <v>99.56999999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>99.56999999999999</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>22.91</v>
-      </c>
-      <c r="N20">
-        <v>76.66</v>
       </c>
       <c r="O20">
         <v>76.66</v>
       </c>
       <c r="P20">
+        <v>76.66</v>
+      </c>
+      <c r="Q20">
         <v>270.6</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.83</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.81</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.83</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2.81</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>424.13</v>
@@ -2813,37 +2828,37 @@
       <c r="K21">
         <v>97.87</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>97.87</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>23.67</v>
-      </c>
-      <c r="N21">
-        <v>74.20999999999999</v>
       </c>
       <c r="O21">
         <v>74.20999999999999</v>
       </c>
       <c r="P21">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="Q21">
         <v>270.35</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.75</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.72</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.75</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2.72</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>522.02</v>
@@ -2875,37 +2890,37 @@
       <c r="K22">
         <v>110.13</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>110.13</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>26.02</v>
-      </c>
-      <c r="N22">
-        <v>84.11</v>
       </c>
       <c r="O22">
         <v>84.11</v>
       </c>
       <c r="P22">
+        <v>84.11</v>
+      </c>
+      <c r="Q22">
         <v>271.13</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3.1</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3.08</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>3.1</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3.08</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>503.41</v>
@@ -2937,37 +2952,37 @@
       <c r="K23">
         <v>110.97</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>110.97</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26.62</v>
-      </c>
-      <c r="N23">
-        <v>84.34999999999999</v>
       </c>
       <c r="O23">
         <v>84.34999999999999</v>
       </c>
       <c r="P23">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="Q23">
         <v>271.01</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3.11</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3.09</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3.11</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3.09</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>684.72</v>
@@ -2999,37 +3014,37 @@
       <c r="K24">
         <v>218.19</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>218.19</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>55.97</v>
-      </c>
-      <c r="N24">
-        <v>162.22</v>
       </c>
       <c r="O24">
         <v>162.22</v>
       </c>
       <c r="P24">
+        <v>162.22</v>
+      </c>
+      <c r="Q24">
         <v>271.49</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5.98</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>5.93</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>5.98</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>5.93</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>568.4400000000001</v>
@@ -3061,37 +3076,37 @@
       <c r="K25">
         <v>98.41</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>98.41</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>23.13</v>
-      </c>
-      <c r="N25">
-        <v>75.29000000000001</v>
       </c>
       <c r="O25">
         <v>75.29000000000001</v>
       </c>
       <c r="P25">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="Q25">
         <v>271.35</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.78</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.76</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.78</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2.76</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>546.22</v>
@@ -3123,31 +3138,31 @@
       <c r="K26">
         <v>117.38</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>117.38</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>35.67</v>
-      </c>
-      <c r="N26">
-        <v>81.70999999999999</v>
       </c>
       <c r="O26">
         <v>81.70999999999999</v>
       </c>
       <c r="P26">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="Q26">
         <v>271.22</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3.01</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.99</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3.01</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.99</v>
       </c>
     </row>
@@ -3166,58 +3181,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
